--- a/docs/shrcore/shr-core-LaboratoryProcedure-model.xlsx
+++ b/docs/shrcore/shr-core-LaboratoryProcedure-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="253">
   <si>
     <t>Path</t>
   </si>
@@ -220,10 +220,10 @@
 </t>
   </si>
   <si>
-    <t>shr-core-LaboratoryProcedure-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-LaboratoryProcedure-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -438,10 +438,6 @@
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
-</t>
-  </si>
-  <si>
     <t>shr-core-LaboratoryProcedure-model.participation.participationPeriod</t>
   </si>
   <si>
@@ -468,6 +464,187 @@
     <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
   </si>
   <si>
+    <t>shr-core-LaboratoryProcedure-model.procedurePartOf[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.procedurePartOfShr-core-Procedure-model</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.procedurePartOfShr-core-MedicationAdministration-model</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.
+Although FHIR MedicationAdministration supports date of administration, information source, performer, it lacks common provenance elements, statement creation date, author, and recorder. These are supported as optional extensions.
+FHIR DSTU2 lacks a category attribute, which is provided as an extension in that version.
+SHR does not allow the 'not given' attributes from DSTU2 and STU3, since they are dropped in R4. The status element is used to document medications not given.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.procedurePartOfShr-core-Observation-model</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category.system</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/observation-category"/&gt;</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="laboratory"/&gt;</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.category.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
     <t>shr-core-LaboratoryProcedure-model.code</t>
   </si>
   <si>
@@ -478,6 +655,32 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.personAuthor[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.personInformationSource[x]</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
+</t>
+  </si>
+  <si>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
   </si>
   <si>
     <t>shr-core-LaboratoryProcedure-model.bodyLocation</t>
@@ -499,185 +702,34 @@
 Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>shr-core-LaboratoryProcedure-model.procedurePartOf[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
-</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular procedure is a component or step.</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.procedurePartOfShr-core-Procedure-model</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.procedurePartOfShr-core-MedicationAdministration-model</t>
-  </si>
-  <si>
-    <t>MedicationAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model]]}
-</t>
-  </si>
-  <si>
-    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
-  </si>
-  <si>
-    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.
-Although FHIR MedicationAdministration supports date of administration, information source, performer, it lacks common provenance elements, statement creation date, author, and recorder. These are supported as optional extensions.
-FHIR DSTU2 lacks a category attribute, which is provided as an extension in that version.
-SHR does not allow the 'not given' attributes from DSTU2 and STU3, since they are dropped in R4. The status element is used to document medications not given.</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.procedurePartOfShr-core-Observation-model</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category</t>
-  </si>
-  <si>
-    <t>The general type or class of this item.</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category.system</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/observation-category"/&gt;</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="laboratory"/&gt;</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.category.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
+    <t>shr-core-LaboratoryProcedure-model.outcome</t>
+  </si>
+  <si>
+    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.diagnosticReport</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.complicationCode</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a code.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.complicationReference</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a reference to a Condition.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.followUp</t>
+  </si>
+  <si>
+    <t>Instructions for follow up.</t>
   </si>
   <si>
     <t>shr-core-LaboratoryProcedure-model.annotation</t>
@@ -690,6 +742,16 @@
     <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
   <si>
+    <t>shr-core-LaboratoryProcedure-model.focalDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FocalDevice-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Activity involving a device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+  </si>
+  <si>
     <t>shr-core-LaboratoryProcedure-model.treatmentIntent</t>
   </si>
   <si>
@@ -703,46 +765,70 @@
 </t>
   </si>
   <si>
-    <t>shr-core-LaboratoryProcedure-model.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
-</t>
-  </si>
-  <si>
-    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.outcome</t>
-  </si>
-  <si>
-    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.diagnosticReport</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.materialUsed[x]</t>
+    <t>shr-core-LaboratoryProcedure-model.materialUsedReference[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
 </t>
   </si>
   <si>
-    <t>Items used during procedure</t>
-  </si>
-  <si>
-    <t>shr-core-LaboratoryProcedure-model.focalDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FocalDevice-model {[]} {[]}
+    <t>Identifies medications, devices and any other substance used as part of the procedure.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.materialUsedReferenceShr-core-Device-model</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
-    <t>A device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.</t>
+  </si>
+  <si>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.
+Device status cannot be reconciled between Argonaut and US-Core, each having different required value sets.
+Device type has extensible mappings to different value sets in Argonaut and US-Core, however both value sets have identical SNOMED content (descendants of 49062001 (Device). We adopt the US-Core value set, which is allowable because the binding is extensible.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.materialUsedReferenceShr-core-Medication-model</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}
+</t>
+  </si>
+  <si>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.</t>
+  </si>
+  <si>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.
+In FHIR DSTU2 and STU3, Medication lacks the identifier attribute, which is included in SHR as an extension.
+DSTU2 lacks the status attribute, which is required by US-Core.
+Batch is 0..1 in FHIR R4, and accordingly is restricted here.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.materialUsedReferenceShr-core-Substance-model</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
+</t>
+  </si>
+  <si>
+    <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
+  </si>
+  <si>
+    <t>shr-core-LaboratoryProcedure-model.usedCode</t>
+  </si>
+  <si>
+    <t>Item used during an activity, represented as a code.</t>
   </si>
   <si>
     <t>shr-core-LaboratoryProcedure-model.specimen</t>
@@ -901,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3554,7 +3640,7 @@
         <v>129</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -3586,7 +3672,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3609,13 +3695,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3666,7 +3752,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3683,7 +3769,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3706,13 +3792,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3763,7 +3849,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3780,7 +3866,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3806,10 +3892,10 @@
         <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3860,7 +3946,7 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -3877,7 +3963,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3885,7 +3971,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -3900,7 +3986,7 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>140</v>
@@ -3933,32 +4019,32 @@
         <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -3972,18 +4058,20 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>36</v>
@@ -3995,13 +4083,13 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4052,13 +4140,13 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>36</v>
@@ -4069,15 +4157,17 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>41</v>
@@ -4092,13 +4182,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4137,17 +4227,19 @@
         <v>36</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
@@ -4164,10 +4256,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>36</v>
@@ -4189,13 +4281,13 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4246,7 +4338,7 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
@@ -4263,17 +4355,15 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>41</v>
@@ -4288,13 +4378,13 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4345,7 +4435,7 @@
         <v>36</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
@@ -4362,17 +4452,15 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>41</v>
@@ -4387,13 +4475,13 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4444,7 +4532,7 @@
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>37</v>
@@ -4461,7 +4549,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4472,7 +4560,7 @@
         <v>37</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>36</v>
@@ -4484,15 +4572,17 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>36</v>
@@ -4529,25 +4619,25 @@
         <v>36</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>36</v>
@@ -4558,7 +4648,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4566,7 +4656,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>41</v>
@@ -4578,25 +4668,29 @@
         <v>36</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>36</v>
@@ -4638,7 +4732,7 @@
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
@@ -4655,7 +4749,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4666,7 +4760,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>36</v>
@@ -4675,19 +4769,19 @@
         <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -4725,25 +4819,25 @@
         <v>36</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>36</v>
@@ -4754,7 +4848,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4774,29 +4868,27 @@
         <v>36</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>36</v>
@@ -4838,7 +4930,7 @@
         <v>36</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
@@ -4855,7 +4947,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4875,21 +4967,21 @@
         <v>36</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>36</v>
       </c>
@@ -4937,7 +5029,7 @@
         <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>37</v>
@@ -4954,7 +5046,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4962,7 +5054,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>41</v>
@@ -4974,27 +5066,29 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>36</v>
@@ -5036,7 +5130,7 @@
         <v>36</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>37</v>
@@ -5053,7 +5147,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5061,7 +5155,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>41</v>
@@ -5073,21 +5167,19 @@
         <v>36</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>36</v>
       </c>
@@ -5111,13 +5203,11 @@
         <v>36</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>36</v>
@@ -5135,10 +5225,10 @@
         <v>36</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>41</v>
@@ -5152,7 +5242,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5172,23 +5262,19 @@
         <v>36</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M44" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>36</v>
       </c>
@@ -5236,7 +5322,7 @@
         <v>36</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>37</v>
@@ -5253,7 +5339,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5264,7 +5350,7 @@
         <v>37</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>36</v>
@@ -5276,13 +5362,13 @@
         <v>36</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5333,13 +5419,13 @@
         <v>36</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>36</v>
@@ -5350,7 +5436,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5373,13 +5459,13 @@
         <v>36</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5406,14 +5492,16 @@
         <v>36</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>36</v>
@@ -5428,7 +5516,7 @@
         <v>36</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>37</v>
@@ -5445,7 +5533,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5456,7 +5544,7 @@
         <v>37</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>36</v>
@@ -5468,13 +5556,13 @@
         <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5525,13 +5613,13 @@
         <v>36</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>36</v>
@@ -5542,7 +5630,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5568,10 +5656,10 @@
         <v>45</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5602,7 +5690,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>36</v>
@@ -5620,7 +5708,7 @@
         <v>36</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>37</v>
@@ -5637,7 +5725,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5717,7 +5805,7 @@
         <v>36</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>37</v>
@@ -5734,7 +5822,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5757,13 +5845,13 @@
         <v>36</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5814,7 +5902,7 @@
         <v>36</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>37</v>
@@ -5831,7 +5919,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5854,13 +5942,13 @@
         <v>36</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -5911,7 +5999,7 @@
         <v>36</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>37</v>
@@ -5928,7 +6016,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -5939,7 +6027,7 @@
         <v>37</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>36</v>
@@ -5951,13 +6039,13 @@
         <v>36</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6008,23 +6096,898 @@
         <v>36</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI52" t="s" s="2">
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X55" s="2"/>
+      <c r="Y55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI52">
+  <autoFilter ref="A1:AI61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6034,7 +6997,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
